--- a/Results/PT1.xlsx
+++ b/Results/PT1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="33">
   <si>
     <t>Tensor</t>
   </si>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -735,6 +735,9 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -742,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -750,6 +753,9 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
@@ -757,7 +763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -765,6 +771,9 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -772,7 +781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -780,6 +789,9 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
@@ -789,18 +801,21 @@
       <c r="F20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -811,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7</v>
       </c>
@@ -822,7 +837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8</v>
       </c>
@@ -833,7 +848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9</v>
       </c>
@@ -844,12 +859,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -860,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -871,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -882,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>A7+1</f>
         <v>13</v>
@@ -890,6 +905,9 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
@@ -897,7 +915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>A32+1</f>
         <v>14</v>
@@ -905,6 +923,9 @@
       <c r="B33" t="s">
         <v>10</v>
       </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
@@ -912,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>A33+1</f>
         <v>15</v>
@@ -920,6 +941,9 @@
       <c r="B34" t="s">
         <v>8</v>
       </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
@@ -927,7 +951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>A34+1</f>
         <v>16</v>
@@ -935,6 +959,9 @@
       <c r="B35" t="s">
         <v>9</v>
       </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
@@ -942,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>A35+1</f>
         <v>17</v>
@@ -950,6 +977,9 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
@@ -957,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>A36+1</f>
         <v>18</v>
@@ -965,19 +995,25 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>A37+1</f>
         <v>19</v>
@@ -985,6 +1021,9 @@
       <c r="B39" t="s">
         <v>9</v>
       </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>A39+1</f>
         <v>20</v>
@@ -1000,6 +1039,9 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>A40+1</f>
         <v>21</v>
@@ -1015,6 +1057,9 @@
       <c r="B41" t="s">
         <v>7</v>
       </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>A41+1</f>
         <v>22</v>
@@ -1033,6 +1078,9 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>A42+1</f>
         <v>23</v>
@@ -1051,6 +1099,9 @@
       <c r="B43" t="s">
         <v>7</v>
       </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>A43+1</f>
         <v>24</v>
@@ -1066,6 +1117,9 @@
       <c r="B44" t="s">
         <v>9</v>
       </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
@@ -1076,22 +1130,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1108,6 +1165,9 @@
       <c r="B49" t="s">
         <v>10</v>
       </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -1123,6 +1183,9 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
@@ -1137,6 +1200,9 @@
       </c>
       <c r="B51" t="s">
         <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -1153,6 +1219,9 @@
       <c r="B52" t="s">
         <v>9</v>
       </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
@@ -1168,6 +1237,9 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
@@ -1183,6 +1255,9 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
@@ -1198,6 +1273,9 @@
       <c r="B55" t="s">
         <v>9</v>
       </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
@@ -1213,6 +1291,9 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
@@ -1228,6 +1309,9 @@
       <c r="B57" t="s">
         <v>6</v>
       </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
@@ -1241,6 +1325,9 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
@@ -1258,6 +1345,9 @@
       <c r="B59" t="s">
         <v>7</v>
       </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
@@ -1272,6 +1362,9 @@
       </c>
       <c r="B60" t="s">
         <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>

--- a/Results/PT1.xlsx
+++ b/Results/PT1.xlsx
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="35">
   <si>
     <t>Tensor</t>
   </si>
   <si>
-    <t>MemN2N</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -127,6 +124,15 @@
   </si>
   <si>
     <t>train</t>
+  </si>
+  <si>
+    <t>Real Tensor</t>
+  </si>
+  <si>
+    <t>1 MemN2N</t>
+  </si>
+  <si>
+    <t>3 MemN2N</t>
   </si>
 </sst>
 </file>
@@ -463,943 +469,954 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5+1</f>
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7" si="0">A6+1</f>
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>A9+1</f>
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ref="A11:A20" si="1">A10+1</f>
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>A14+1</f>
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>A7+1</f>
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>A32+1</f>
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>A33+1</f>
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>A34+1</f>
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>A35+1</f>
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>A36+1</f>
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>A37+1</f>
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>A39+1</f>
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>A40+1</f>
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>A41+1</f>
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>A42+1</f>
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>A43+1</f>
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>A48+1</f>
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ref="A50:A60" si="2">A49+1</f>
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>A58+1</f>
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/PT1.xlsx
+++ b/Results/PT1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="9140" yWindow="660" windowWidth="21420" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="38">
   <si>
     <t>Tensor</t>
   </si>
@@ -84,12 +84,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>tensor correct</t>
-  </si>
-  <si>
-    <t>memn2n correct</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>320 converted</t>
   </si>
   <si>
-    <t>7(ignoring  13 questions) out of 41</t>
-  </si>
-  <si>
     <t>http://www.sat-tutors-blog.com/2013/10/18/2013-14-sat-practice-test-score-conversion-tables/</t>
   </si>
   <si>
@@ -133,16 +124,42 @@
   </si>
   <si>
     <t>3 MemN2N</t>
+  </si>
+  <si>
+    <t>tensor other correct</t>
+  </si>
+  <si>
+    <t>1 memn2n correct</t>
+  </si>
+  <si>
+    <t>tensor reg correct</t>
+  </si>
+  <si>
+    <t>3 memn2n correct</t>
+  </si>
+  <si>
+    <t>7 out of 41</t>
+  </si>
+  <si>
+    <t>8 out of 41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,17 +200,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,33 +489,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -518,19 +540,28 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
@@ -538,13 +569,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
@@ -552,7 +586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5+1</f>
         <v>11</v>
@@ -560,6 +594,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -567,10 +604,13 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7" si="0">A6+1</f>
         <v>12</v>
@@ -578,6 +618,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -585,20 +628,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E9" t="str">
+        <f>D9</f>
+        <v>train</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -607,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>A9+1</f>
         <v>14</v>
@@ -615,8 +665,15 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E16" si="1">D10</f>
+        <v>train</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -625,19 +682,29 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" ref="A11:A20" si="1">A10+1</f>
+        <f t="shared" ref="A11:A20" si="2">A10+1</f>
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>train</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -645,17 +712,27 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
+        <v>train</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -663,17 +740,27 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
+        <v>train</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -682,19 +769,29 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
+        <v>train</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -703,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>A14+1</f>
         <v>19</v>
@@ -711,8 +808,15 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>train</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -721,16 +825,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
+        <v>train</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -739,17 +850,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
@@ -757,17 +874,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
@@ -775,17 +898,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
@@ -793,17 +922,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
@@ -811,23 +946,26 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -838,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7</v>
       </c>
@@ -849,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8</v>
       </c>
@@ -860,7 +998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9</v>
       </c>
@@ -871,12 +1009,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -887,7 +1025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -898,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -909,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>A7+1</f>
         <v>13</v>
@@ -917,8 +1055,15 @@
       <c r="B32" t="s">
         <v>8</v>
       </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E32" t="str">
+        <f>D32</f>
+        <v>train</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -927,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>A32+1</f>
         <v>14</v>
@@ -935,8 +1080,15 @@
       <c r="B33" t="s">
         <v>9</v>
       </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ref="E33:E35" si="3">D33</f>
+        <v>train</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -945,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>A33+1</f>
         <v>15</v>
@@ -953,8 +1105,15 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="3"/>
+        <v>train</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -963,7 +1122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>A34+1</f>
         <v>16</v>
@@ -971,8 +1130,15 @@
       <c r="B35" t="s">
         <v>8</v>
       </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v>train</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -981,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>A35+1</f>
         <v>17</v>
@@ -989,9 +1155,15 @@
       <c r="B36" t="s">
         <v>5</v>
       </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
       <c r="F36" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>A36+1</f>
         <v>18</v>
@@ -1007,25 +1179,31 @@
       <c r="B37" t="s">
         <v>5</v>
       </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>A37+1</f>
         <v>19</v>
@@ -1033,8 +1211,14 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1042,8 +1226,11 @@
       <c r="G39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>A39+1</f>
         <v>20</v>
@@ -1051,8 +1238,14 @@
       <c r="B40" t="s">
         <v>7</v>
       </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1061,7 +1254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>A40+1</f>
         <v>21</v>
@@ -1069,8 +1262,14 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -1079,10 +1278,10 @@
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>A41+1</f>
         <v>22</v>
@@ -1090,8 +1289,14 @@
       <c r="B42" t="s">
         <v>7</v>
       </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1100,10 +1305,13 @@
         <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>A42+1</f>
         <v>23</v>
@@ -1111,9 +1319,15 @@
       <c r="B43" t="s">
         <v>6</v>
       </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
       <c r="F43" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>A43+1</f>
         <v>24</v>
@@ -1129,9 +1343,15 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
@@ -1139,28 +1359,37 @@
         <v>16</v>
       </c>
       <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -1169,7 +1398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>A48+1</f>
         <v>8</v>
@@ -1177,8 +1406,14 @@
       <c r="B49" t="s">
         <v>9</v>
       </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -1187,16 +1422,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" ref="A50:A60" si="2">A49+1</f>
+        <f t="shared" ref="A50:A60" si="4">A49+1</f>
         <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1205,16 +1446,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1223,16 +1470,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -1241,16 +1494,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
@@ -1259,16 +1518,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1277,16 +1542,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -1295,17 +1566,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
       <c r="F56" t="s">
         <v>7</v>
       </c>
@@ -1313,17 +1590,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
       <c r="F57" t="s">
         <v>7</v>
       </c>
@@ -1331,17 +1614,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>A58+1</f>
         <v>18</v>
@@ -1357,27 +1646,42 @@
       <c r="B59" t="s">
         <v>6</v>
       </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
       <c r="F59" t="s">
         <v>5</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
       <c r="F60" t="s">
         <v>7</v>
       </c>
@@ -1385,36 +1689,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2"/>
     </row>
